--- a/converter/data/xlsx/24.9. A SMJENA.XLSX
+++ b/converter/data/xlsx/24.9. A SMJENA.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="128">
   <si>
     <t>PONEDJELJAK</t>
   </si>
@@ -4128,6 +4128,72 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4139,72 +4205,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="96" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5901,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5940,95 +5940,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="26.25">
-      <c r="A1" s="621" t="s">
+      <c r="A1" s="617" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="621"/>
-      <c r="C1" s="621"/>
-      <c r="D1" s="621"/>
-      <c r="E1" s="621"/>
-      <c r="F1" s="621"/>
-      <c r="G1" s="621"/>
-      <c r="H1" s="621"/>
-      <c r="I1" s="621"/>
-      <c r="J1" s="621"/>
-      <c r="K1" s="621"/>
-      <c r="L1" s="621"/>
-      <c r="M1" s="621"/>
-      <c r="N1" s="621"/>
-      <c r="O1" s="621"/>
-      <c r="P1" s="621"/>
-      <c r="Q1" s="621"/>
-      <c r="R1" s="621"/>
-      <c r="S1" s="621"/>
-      <c r="T1" s="621"/>
-      <c r="U1" s="621"/>
-      <c r="V1" s="621"/>
-      <c r="W1" s="621"/>
-      <c r="X1" s="621"/>
-      <c r="Y1" s="621"/>
-      <c r="Z1" s="621"/>
-      <c r="AA1" s="621"/>
-      <c r="AB1" s="621"/>
-      <c r="AC1" s="621"/>
-      <c r="AD1" s="621"/>
-      <c r="AE1" s="621"/>
-      <c r="AF1" s="621"/>
-      <c r="AG1" s="621"/>
-      <c r="AH1" s="621"/>
-      <c r="AI1" s="621"/>
-      <c r="AJ1" s="621"/>
+      <c r="B1" s="617"/>
+      <c r="C1" s="617"/>
+      <c r="D1" s="617"/>
+      <c r="E1" s="617"/>
+      <c r="F1" s="617"/>
+      <c r="G1" s="617"/>
+      <c r="H1" s="617"/>
+      <c r="I1" s="617"/>
+      <c r="J1" s="617"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="617"/>
+      <c r="M1" s="617"/>
+      <c r="N1" s="617"/>
+      <c r="O1" s="617"/>
+      <c r="P1" s="617"/>
+      <c r="Q1" s="617"/>
+      <c r="R1" s="617"/>
+      <c r="S1" s="617"/>
+      <c r="T1" s="617"/>
+      <c r="U1" s="617"/>
+      <c r="V1" s="617"/>
+      <c r="W1" s="617"/>
+      <c r="X1" s="617"/>
+      <c r="Y1" s="617"/>
+      <c r="Z1" s="617"/>
+      <c r="AA1" s="617"/>
+      <c r="AB1" s="617"/>
+      <c r="AC1" s="617"/>
+      <c r="AD1" s="617"/>
+      <c r="AE1" s="617"/>
+      <c r="AF1" s="617"/>
+      <c r="AG1" s="617"/>
+      <c r="AH1" s="617"/>
+      <c r="AI1" s="617"/>
+      <c r="AJ1" s="617"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="18">
       <c r="A2" s="473" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="622" t="s">
+      <c r="B2" s="618" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="623"/>
-      <c r="D2" s="623"/>
-      <c r="E2" s="623"/>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="624"/>
-      <c r="I2" s="625" t="s">
+      <c r="C2" s="619"/>
+      <c r="D2" s="619"/>
+      <c r="E2" s="619"/>
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="621" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="623"/>
-      <c r="L2" s="623"/>
-      <c r="M2" s="623"/>
-      <c r="N2" s="623"/>
-      <c r="O2" s="624"/>
-      <c r="P2" s="622" t="s">
+      <c r="J2" s="619"/>
+      <c r="K2" s="619"/>
+      <c r="L2" s="619"/>
+      <c r="M2" s="619"/>
+      <c r="N2" s="619"/>
+      <c r="O2" s="620"/>
+      <c r="P2" s="618" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="623"/>
-      <c r="R2" s="623"/>
-      <c r="S2" s="623"/>
-      <c r="T2" s="623"/>
-      <c r="U2" s="623"/>
-      <c r="V2" s="624"/>
-      <c r="W2" s="625" t="s">
+      <c r="Q2" s="619"/>
+      <c r="R2" s="619"/>
+      <c r="S2" s="619"/>
+      <c r="T2" s="619"/>
+      <c r="U2" s="619"/>
+      <c r="V2" s="620"/>
+      <c r="W2" s="621" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="623"/>
-      <c r="Y2" s="623"/>
-      <c r="Z2" s="623"/>
-      <c r="AA2" s="623"/>
-      <c r="AB2" s="623"/>
-      <c r="AC2" s="624"/>
-      <c r="AD2" s="626" t="s">
+      <c r="X2" s="619"/>
+      <c r="Y2" s="619"/>
+      <c r="Z2" s="619"/>
+      <c r="AA2" s="619"/>
+      <c r="AB2" s="619"/>
+      <c r="AC2" s="620"/>
+      <c r="AD2" s="622" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="627"/>
-      <c r="AF2" s="627"/>
-      <c r="AG2" s="627"/>
-      <c r="AH2" s="627"/>
-      <c r="AI2" s="627"/>
-      <c r="AJ2" s="628"/>
+      <c r="AE2" s="623"/>
+      <c r="AF2" s="623"/>
+      <c r="AG2" s="623"/>
+      <c r="AH2" s="623"/>
+      <c r="AI2" s="623"/>
+      <c r="AJ2" s="624"/>
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="16.5" thickBot="1">
@@ -6310,9 +6310,7 @@
       <c r="S6" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="T6" s="158" t="s">
-        <v>119</v>
-      </c>
+      <c r="T6" s="158"/>
       <c r="U6" s="158" t="s">
         <v>69</v>
       </c>
@@ -8719,25 +8717,25 @@
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="635" t="s">
+      <c r="B45" s="631" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="636"/>
+      <c r="C45" s="632"/>
       <c r="D45" s="144"/>
       <c r="E45" s="144"/>
       <c r="F45" s="144"/>
-      <c r="G45" s="631"/>
-      <c r="H45" s="632"/>
-      <c r="I45" s="637" t="s">
+      <c r="G45" s="627"/>
+      <c r="H45" s="628"/>
+      <c r="I45" s="633" t="s">
         <v>114</v>
       </c>
-      <c r="J45" s="638"/>
-      <c r="K45" s="639" t="s">
+      <c r="J45" s="634"/>
+      <c r="K45" s="635" t="s">
         <v>123</v>
       </c>
-      <c r="L45" s="640"/>
-      <c r="M45" s="640"/>
-      <c r="N45" s="638"/>
+      <c r="L45" s="636"/>
+      <c r="M45" s="636"/>
+      <c r="N45" s="634"/>
       <c r="O45" s="345"/>
       <c r="P45" s="560" t="s">
         <v>123</v>
@@ -8746,17 +8744,17 @@
       <c r="R45" s="134"/>
       <c r="S45" s="202"/>
       <c r="T45" s="122"/>
-      <c r="U45" s="629"/>
-      <c r="V45" s="630"/>
-      <c r="W45" s="633"/>
-      <c r="X45" s="634"/>
+      <c r="U45" s="625"/>
+      <c r="V45" s="626"/>
+      <c r="W45" s="629"/>
+      <c r="X45" s="630"/>
       <c r="Y45" s="319"/>
       <c r="Z45" s="158"/>
       <c r="AA45" s="123"/>
-      <c r="AB45" s="619"/>
-      <c r="AC45" s="620"/>
-      <c r="AD45" s="633"/>
-      <c r="AE45" s="634"/>
+      <c r="AB45" s="615"/>
+      <c r="AC45" s="616"/>
+      <c r="AD45" s="629"/>
+      <c r="AE45" s="630"/>
       <c r="AF45" s="158"/>
       <c r="AG45" s="185"/>
       <c r="AH45" s="185"/>
@@ -10576,51 +10574,51 @@
       <c r="A71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="615" t="s">
+      <c r="B71" s="637" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="616"/>
-      <c r="D71" s="616"/>
-      <c r="E71" s="616"/>
-      <c r="F71" s="616"/>
-      <c r="G71" s="616"/>
-      <c r="H71" s="618"/>
-      <c r="I71" s="615" t="s">
+      <c r="C71" s="638"/>
+      <c r="D71" s="638"/>
+      <c r="E71" s="638"/>
+      <c r="F71" s="638"/>
+      <c r="G71" s="638"/>
+      <c r="H71" s="640"/>
+      <c r="I71" s="637" t="s">
         <v>100</v>
       </c>
-      <c r="J71" s="616"/>
-      <c r="K71" s="616"/>
-      <c r="L71" s="616"/>
-      <c r="M71" s="616"/>
-      <c r="N71" s="616"/>
-      <c r="O71" s="618"/>
-      <c r="P71" s="615" t="s">
+      <c r="J71" s="638"/>
+      <c r="K71" s="638"/>
+      <c r="L71" s="638"/>
+      <c r="M71" s="638"/>
+      <c r="N71" s="638"/>
+      <c r="O71" s="640"/>
+      <c r="P71" s="637" t="s">
         <v>85</v>
       </c>
-      <c r="Q71" s="616"/>
-      <c r="R71" s="616"/>
-      <c r="S71" s="616"/>
-      <c r="T71" s="616"/>
-      <c r="U71" s="616"/>
-      <c r="V71" s="618"/>
-      <c r="W71" s="615" t="s">
+      <c r="Q71" s="638"/>
+      <c r="R71" s="638"/>
+      <c r="S71" s="638"/>
+      <c r="T71" s="638"/>
+      <c r="U71" s="638"/>
+      <c r="V71" s="640"/>
+      <c r="W71" s="637" t="s">
         <v>40</v>
       </c>
-      <c r="X71" s="616"/>
-      <c r="Y71" s="616"/>
-      <c r="Z71" s="616"/>
-      <c r="AA71" s="616"/>
-      <c r="AB71" s="616"/>
-      <c r="AC71" s="618"/>
-      <c r="AD71" s="615" t="s">
+      <c r="X71" s="638"/>
+      <c r="Y71" s="638"/>
+      <c r="Z71" s="638"/>
+      <c r="AA71" s="638"/>
+      <c r="AB71" s="638"/>
+      <c r="AC71" s="640"/>
+      <c r="AD71" s="637" t="s">
         <v>25</v>
       </c>
-      <c r="AE71" s="616"/>
-      <c r="AF71" s="616"/>
-      <c r="AG71" s="616"/>
-      <c r="AH71" s="616"/>
-      <c r="AI71" s="616"/>
-      <c r="AJ71" s="617"/>
+      <c r="AE71" s="638"/>
+      <c r="AF71" s="638"/>
+      <c r="AG71" s="638"/>
+      <c r="AH71" s="638"/>
+      <c r="AI71" s="638"/>
+      <c r="AJ71" s="639"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
@@ -10907,6 +10905,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AD71:AJ71"/>
+    <mergeCell ref="W71:AC71"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="I71:O71"/>
+    <mergeCell ref="P71:V71"/>
     <mergeCell ref="AB45:AC45"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
@@ -10921,11 +10924,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:N45"/>
-    <mergeCell ref="AD71:AJ71"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="P71:V71"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
